--- a/src/parser/temp_generate/piadgoods.xlsx
+++ b/src/parser/temp_generate/piadgoods.xlsx
@@ -2,34 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ENUM" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -140,25 +134,30 @@
     <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t xml:space="preserve">None = 0, /// None
-Cash = 1, /// Cash
-Gold = 2, /// Gold
-Pay = 3,
+IosBilling = 1, /// IOS 플랫폼에서 지불 금액 타입
+AndroidBilling = 2, /// Android 플랫폼 지불 금액 타입
+GameMoney = 3, /// 쿠키 지불
+CashMoney = 4, /// 잼 지불
 </t>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">None = 0,
-MoneyType_1 = 1,
-MoneyType_2 = 2,
+        <t xml:space="preserve">None = 0, /// None
+GameMoney = 1, /// 게임 머니(쿠키)
+CashMoney = 2, /// 캐시 머니(잼)
+RateScore = 3, /// 평점
+PassTicket = 4, /// 패스권
 </t>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">None = 0,
-MoneyType_1 = 1,
-MoneyType_2 = 2,
+        <t xml:space="preserve">None = 0, /// None
+GameMoney = 1, /// 게임 머니(쿠키)
+CashMoney = 2, /// 캐시 머니(잼)
+RateScore = 3, /// 평점
+PassTicket = 4, /// 패스권
 </t>
       </text>
     </comment>
@@ -455,20 +454,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J399"/>
+  <dimension ref="A2:L400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col width="15.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.5" bestFit="1" customWidth="1" min="3" max="4"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" min="5" max="8"/>
-    <col width="20.5" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="18.6640625" bestFit="1" customWidth="1" min="10" max="10"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,30 +485,40 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>productID</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>goodtype1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>goodquantity1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>goodbonusquantity1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>goodtype2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>goodquantity2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>goodbonusquantity2</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>paidgood_icon</t>
         </is>
@@ -545,30 +547,40 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MoneyType</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Uint</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Uint</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>MoneyType</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Uint</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Uint</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>String</t>
         </is>
@@ -591,25 +603,30 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,30 +651,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>in-app 상품ID</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>지급 재화 타입 1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>지급 재화 수량 1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>추가 지급 수량 1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>지급 재화 타입 2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>지급 재화 수량 2</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>추가 지급 수량 2</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>상품 아이콘 리소스</t>
         </is>
@@ -686,193 +713,113 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>in-app 상품ID
+(AndroidBilling, IosBilling 타입에 적용)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>지급 재화 타입 1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>지급 재화 수량 1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>추가 지급 수량 1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>지급 재화 타입 2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>지급 재화 수량 2</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>추가 지급 수량 2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>상품 아이콘 리소스</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MoneyType_1</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MoneyType_1</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>QQ</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>MoneyType_2</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>WW</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pay</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>MoneyType_1</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>EE</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pay</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>MoneyType_2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TT</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -881,8 +828,11 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -891,8 +841,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -901,8 +854,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -911,8 +867,11 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -921,8 +880,11 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -931,8 +893,11 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -941,8 +906,11 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -951,8 +919,11 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -961,8 +932,11 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -971,8 +945,11 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -981,8 +958,11 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -991,8 +971,11 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1001,8 +984,11 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1011,8 +997,11 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1021,8 +1010,11 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1031,8 +1023,11 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1041,8 +1036,11 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1051,8 +1049,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1061,8 +1062,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1071,8 +1075,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1081,8 +1088,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1091,8 +1101,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1101,8 +1114,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1111,8 +1127,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1121,8 +1140,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1131,8 +1153,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1141,8 +1166,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1151,8 +1179,11 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1161,8 +1192,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1171,8 +1205,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1181,8 +1218,11 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1191,8 +1231,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
@@ -1201,8 +1244,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
@@ -1211,8 +1257,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
@@ -1221,8 +1270,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -1231,8 +1283,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
@@ -1241,8 +1296,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
@@ -1251,8 +1309,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
@@ -1261,8 +1322,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
@@ -1271,8 +1335,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
@@ -1281,8 +1348,11 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
@@ -1291,8 +1361,11 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
@@ -1301,8 +1374,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
@@ -1311,8 +1387,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -1321,8 +1400,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1331,8 +1413,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -1341,8 +1426,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -1351,8 +1439,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
@@ -1361,8 +1452,11 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
@@ -1371,8 +1465,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
@@ -1381,8 +1478,11 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
@@ -1391,8 +1491,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
@@ -1401,8 +1504,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
@@ -1411,8 +1517,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
@@ -1421,8 +1530,11 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
@@ -1431,8 +1543,11 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
@@ -1441,8 +1556,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
@@ -1451,8 +1569,11 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
@@ -1461,8 +1582,11 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
@@ -1471,8 +1595,11 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -1481,8 +1608,11 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
@@ -1491,8 +1621,11 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
@@ -1501,8 +1634,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
@@ -1511,8 +1647,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
@@ -1521,8 +1660,11 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
@@ -1531,8 +1673,11 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
@@ -1541,8 +1686,11 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
@@ -1551,8 +1699,11 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
@@ -1561,8 +1712,11 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
@@ -1571,8 +1725,11 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
@@ -1581,8 +1738,11 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
@@ -1591,8 +1751,11 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
@@ -1601,8 +1764,11 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
@@ -1611,8 +1777,11 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
@@ -1621,8 +1790,11 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
@@ -1631,8 +1803,11 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
@@ -1641,8 +1816,11 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
@@ -1651,8 +1829,11 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
@@ -1661,8 +1842,11 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -1671,8 +1855,11 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -1681,8 +1868,11 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
@@ -1691,8 +1881,11 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
@@ -1701,8 +1894,11 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -1711,8 +1907,11 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
@@ -1721,8 +1920,11 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -1731,8 +1933,11 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
@@ -1741,8 +1946,11 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
@@ -1751,8 +1959,11 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
@@ -1761,8 +1972,11 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
@@ -1771,8 +1985,11 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
@@ -1781,8 +1998,11 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
@@ -1791,8 +2011,11 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
@@ -1801,8 +2024,11 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
@@ -1811,8 +2037,11 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
@@ -1821,8 +2050,11 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
@@ -1831,8 +2063,11 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
@@ -1841,8 +2076,11 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
@@ -1851,8 +2089,11 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
@@ -1861,8 +2102,11 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
@@ -1871,8 +2115,11 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
@@ -1881,8 +2128,11 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
@@ -1891,8 +2141,11 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
@@ -1901,8 +2154,11 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
@@ -1911,8 +2167,11 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
@@ -1921,8 +2180,11 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
@@ -1931,8 +2193,11 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
@@ -1941,8 +2206,11 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
@@ -1951,8 +2219,11 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
@@ -1961,8 +2232,11 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
@@ -1971,8 +2245,11 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
@@ -1981,8 +2258,11 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
@@ -1991,8 +2271,11 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
@@ -2001,8 +2284,11 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
@@ -2011,8 +2297,11 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
@@ -2021,8 +2310,11 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
@@ -2031,8 +2323,11 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
@@ -2041,8 +2336,11 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
@@ -2051,8 +2349,11 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
@@ -2061,8 +2362,11 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
@@ -2071,8 +2375,11 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
@@ -2081,8 +2388,11 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
@@ -2091,8 +2401,11 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
@@ -2101,8 +2414,11 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -2111,8 +2427,11 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
@@ -2121,8 +2440,11 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
@@ -2131,8 +2453,11 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
@@ -2141,8 +2466,11 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
@@ -2151,8 +2479,11 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
@@ -2161,8 +2492,11 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
@@ -2171,8 +2505,11 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
@@ -2181,8 +2518,11 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
@@ -2191,8 +2531,11 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
@@ -2201,8 +2544,11 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
@@ -2211,8 +2557,11 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
@@ -2221,8 +2570,11 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
@@ -2231,8 +2583,11 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
@@ -2241,8 +2596,11 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
@@ -2251,8 +2609,11 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
@@ -2261,8 +2622,11 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
@@ -2271,8 +2635,11 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
@@ -2281,8 +2648,11 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
@@ -2291,8 +2661,11 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
@@ -2301,8 +2674,11 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -2311,8 +2687,11 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
@@ -2321,8 +2700,11 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
@@ -2331,8 +2713,11 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
@@ -2341,8 +2726,11 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
@@ -2351,8 +2739,11 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -2361,8 +2752,11 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
@@ -2371,8 +2765,11 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -2381,8 +2778,11 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -2391,8 +2791,11 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
@@ -2401,8 +2804,11 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
@@ -2411,8 +2817,11 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
@@ -2421,8 +2830,11 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
@@ -2431,8 +2843,11 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -2441,8 +2856,11 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
@@ -2451,8 +2869,11 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
@@ -2461,8 +2882,11 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
@@ -2471,8 +2895,11 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
@@ -2481,8 +2908,11 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
@@ -2491,8 +2921,11 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
@@ -2501,8 +2934,11 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
@@ -2511,8 +2947,11 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
@@ -2521,8 +2960,11 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
@@ -2531,8 +2973,11 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
@@ -2541,8 +2986,11 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
@@ -2551,8 +2999,11 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
@@ -2561,8 +3012,11 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
@@ -2571,8 +3025,11 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
@@ -2581,8 +3038,11 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
@@ -2591,8 +3051,11 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
@@ -2601,8 +3064,11 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
@@ -2611,8 +3077,11 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
@@ -2621,8 +3090,11 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
@@ -2631,8 +3103,11 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
@@ -2641,8 +3116,11 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
@@ -2651,8 +3129,11 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
@@ -2661,8 +3142,11 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
@@ -2671,8 +3155,11 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
@@ -2681,8 +3168,11 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
@@ -2691,8 +3181,11 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
@@ -2701,8 +3194,11 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
@@ -2711,8 +3207,11 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
@@ -2721,8 +3220,11 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
@@ -2731,8 +3233,11 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
@@ -2741,8 +3246,11 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
@@ -2751,8 +3259,11 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
@@ -2761,8 +3272,11 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
@@ -2771,8 +3285,11 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
@@ -2781,8 +3298,11 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
@@ -2791,8 +3311,11 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
@@ -2801,8 +3324,11 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
@@ -2811,8 +3337,11 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
@@ -2821,8 +3350,11 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
@@ -2831,8 +3363,11 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -2841,8 +3376,11 @@
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
@@ -2851,8 +3389,11 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -2861,8 +3402,11 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
@@ -2871,8 +3415,11 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
@@ -2881,8 +3428,11 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
@@ -2891,8 +3441,11 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
@@ -2901,8 +3454,11 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
@@ -2911,8 +3467,11 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
@@ -2921,8 +3480,11 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
@@ -2931,8 +3493,11 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
@@ -2941,8 +3506,11 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
@@ -2951,8 +3519,11 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
@@ -2961,8 +3532,11 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
@@ -2971,8 +3545,11 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -2981,8 +3558,11 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
@@ -2991,8 +3571,11 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
@@ -3001,8 +3584,11 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
@@ -3011,8 +3597,11 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
@@ -3021,8 +3610,11 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
@@ -3031,8 +3623,11 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
@@ -3041,8 +3636,11 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
@@ -3051,8 +3649,11 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
@@ -3061,8 +3662,11 @@
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
@@ -3071,8 +3675,11 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
@@ -3081,8 +3688,11 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
@@ -3091,8 +3701,11 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
@@ -3101,8 +3714,11 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
@@ -3111,8 +3727,11 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
@@ -3121,8 +3740,11 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
@@ -3131,8 +3753,11 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
@@ -3141,8 +3766,11 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
@@ -3151,8 +3779,11 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
@@ -3161,8 +3792,11 @@
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
@@ -3171,8 +3805,11 @@
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
@@ -3181,8 +3818,11 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
@@ -3191,8 +3831,11 @@
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
@@ -3201,8 +3844,11 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
@@ -3211,8 +3857,11 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
@@ -3221,8 +3870,11 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
@@ -3231,8 +3883,11 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
@@ -3241,8 +3896,11 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
@@ -3251,8 +3909,11 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
@@ -3261,8 +3922,11 @@
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
@@ -3271,8 +3935,11 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
@@ -3281,8 +3948,11 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
@@ -3291,8 +3961,11 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
@@ -3301,8 +3974,11 @@
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
@@ -3311,8 +3987,11 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
@@ -3321,8 +4000,11 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
@@ -3331,8 +4013,11 @@
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -3341,8 +4026,11 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
@@ -3351,8 +4039,11 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
@@ -3361,8 +4052,11 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
@@ -3371,8 +4065,11 @@
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
@@ -3381,8 +4078,11 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
@@ -3391,8 +4091,11 @@
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
@@ -3401,8 +4104,11 @@
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
@@ -3411,8 +4117,11 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
@@ -3421,8 +4130,11 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
@@ -3431,8 +4143,11 @@
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
@@ -3441,8 +4156,11 @@
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
@@ -3451,8 +4169,11 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
@@ -3461,8 +4182,11 @@
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
@@ -3471,8 +4195,11 @@
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
@@ -3481,8 +4208,11 @@
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
@@ -3491,8 +4221,11 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
@@ -3501,8 +4234,11 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
@@ -3511,8 +4247,11 @@
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
@@ -3521,8 +4260,11 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
@@ -3531,8 +4273,11 @@
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
@@ -3541,8 +4286,11 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
@@ -3551,8 +4299,11 @@
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
@@ -3561,8 +4312,11 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
@@ -3571,8 +4325,11 @@
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
@@ -3581,8 +4338,11 @@
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
@@ -3591,8 +4351,11 @@
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
@@ -3601,8 +4364,11 @@
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
@@ -3611,8 +4377,11 @@
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
@@ -3621,8 +4390,11 @@
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
@@ -3631,8 +4403,11 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
@@ -3641,8 +4416,11 @@
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
@@ -3651,8 +4429,11 @@
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -3661,8 +4442,11 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
@@ -3671,8 +4455,11 @@
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
@@ -3681,8 +4468,11 @@
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr"/>
@@ -3691,8 +4481,11 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr"/>
@@ -3701,8 +4494,11 @@
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
@@ -3711,8 +4507,11 @@
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr"/>
@@ -3721,8 +4520,11 @@
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr"/>
@@ -3731,8 +4533,11 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr"/>
@@ -3741,8 +4546,11 @@
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
@@ -3751,8 +4559,11 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
@@ -3761,8 +4572,11 @@
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
@@ -3771,8 +4585,11 @@
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr"/>
@@ -3781,8 +4598,11 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr"/>
@@ -3791,8 +4611,11 @@
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr"/>
@@ -3801,8 +4624,11 @@
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr"/>
@@ -3811,8 +4637,11 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr"/>
@@ -3821,8 +4650,11 @@
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -3831,8 +4663,11 @@
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
@@ -3841,8 +4676,11 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
@@ -3851,8 +4689,11 @@
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr"/>
@@ -3861,8 +4702,11 @@
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr"/>
@@ -3871,8 +4715,11 @@
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr"/>
@@ -3881,8 +4728,11 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr"/>
@@ -3891,8 +4741,11 @@
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr"/>
@@ -3901,8 +4754,11 @@
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr"/>
@@ -3911,8 +4767,11 @@
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr"/>
@@ -3921,8 +4780,11 @@
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
@@ -3931,8 +4793,11 @@
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr"/>
@@ -3941,8 +4806,11 @@
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr"/>
@@ -3951,8 +4819,11 @@
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
@@ -3961,8 +4832,11 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
@@ -3971,8 +4845,11 @@
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr"/>
@@ -3981,8 +4858,11 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr"/>
@@ -3991,8 +4871,11 @@
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr"/>
@@ -4001,8 +4884,11 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr"/>
@@ -4011,8 +4897,11 @@
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr"/>
@@ -4021,8 +4910,11 @@
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr"/>
@@ -4031,8 +4923,11 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr"/>
@@ -4041,8 +4936,11 @@
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
@@ -4051,8 +4949,11 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
@@ -4061,8 +4962,11 @@
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
@@ -4071,8 +4975,11 @@
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
@@ -4081,8 +4988,11 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
@@ -4091,8 +5001,11 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr"/>
@@ -4101,8 +5014,11 @@
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr"/>
@@ -4111,8 +5027,11 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr"/>
@@ -4121,8 +5040,11 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr"/>
@@ -4131,8 +5053,11 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
@@ -4141,8 +5066,11 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
@@ -4151,8 +5079,11 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
@@ -4161,8 +5092,11 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
@@ -4171,8 +5105,11 @@
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
@@ -4181,8 +5118,11 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr"/>
@@ -4191,8 +5131,11 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
@@ -4201,8 +5144,11 @@
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr"/>
@@ -4211,8 +5157,11 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
@@ -4221,8 +5170,11 @@
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -4231,8 +5183,11 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
@@ -4241,8 +5196,11 @@
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
@@ -4251,8 +5209,11 @@
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr"/>
@@ -4261,8 +5222,11 @@
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr"/>
@@ -4271,8 +5235,11 @@
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr"/>
@@ -4281,8 +5248,11 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
@@ -4291,8 +5261,11 @@
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr"/>
@@ -4301,8 +5274,11 @@
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr"/>
@@ -4311,8 +5287,11 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr"/>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr"/>
@@ -4321,8 +5300,11 @@
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr"/>
@@ -4331,8 +5313,11 @@
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr"/>
@@ -4341,8 +5326,11 @@
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr"/>
@@ -4351,8 +5339,11 @@
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr"/>
@@ -4361,8 +5352,11 @@
       <c r="G360" t="inlineStr"/>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr"/>
@@ -4371,8 +5365,11 @@
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
@@ -4381,8 +5378,11 @@
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr"/>
@@ -4391,8 +5391,11 @@
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr"/>
@@ -4401,8 +5404,11 @@
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
@@ -4411,8 +5417,11 @@
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr"/>
@@ -4421,8 +5430,11 @@
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr"/>
@@ -4431,8 +5443,11 @@
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
@@ -4441,8 +5456,11 @@
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr"/>
@@ -4451,8 +5469,11 @@
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr"/>
@@ -4461,8 +5482,11 @@
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr"/>
@@ -4471,8 +5495,11 @@
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr"/>
@@ -4481,8 +5508,11 @@
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr"/>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr"/>
@@ -4491,8 +5521,11 @@
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr"/>
@@ -4501,8 +5534,11 @@
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr"/>
@@ -4511,8 +5547,11 @@
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr"/>
@@ -4521,8 +5560,11 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr"/>
@@ -4531,8 +5573,11 @@
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr"/>
@@ -4541,8 +5586,11 @@
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr"/>
@@ -4551,8 +5599,11 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
@@ -4561,8 +5612,11 @@
       <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
@@ -4571,8 +5625,11 @@
       <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr"/>
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
@@ -4581,8 +5638,11 @@
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr"/>
@@ -4591,8 +5651,11 @@
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr"/>
@@ -4601,8 +5664,11 @@
       <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr"/>
@@ -4611,8 +5677,11 @@
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr"/>
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr"/>
@@ -4621,8 +5690,11 @@
       <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr"/>
@@ -4631,8 +5703,11 @@
       <c r="G387" t="inlineStr"/>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr"/>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr"/>
@@ -4641,8 +5716,11 @@
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr"/>
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr"/>
@@ -4651,8 +5729,11 @@
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr"/>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr"/>
@@ -4661,8 +5742,11 @@
       <c r="G390" t="inlineStr"/>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr"/>
       <c r="B391" t="inlineStr"/>
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr"/>
@@ -4671,8 +5755,11 @@
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr"/>
       <c r="B392" t="inlineStr"/>
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr"/>
@@ -4681,8 +5768,11 @@
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -4691,8 +5781,11 @@
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr"/>
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr"/>
@@ -4701,8 +5794,11 @@
       <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr"/>
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr"/>
@@ -4711,8 +5807,11 @@
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr"/>
@@ -4721,8 +5820,11 @@
       <c r="G396" t="inlineStr"/>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr"/>
       <c r="B397" t="inlineStr"/>
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr"/>
@@ -4731,8 +5833,11 @@
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr"/>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr"/>
@@ -4741,8 +5846,11 @@
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr"/>
@@ -4751,39 +5859,61 @@
       <c r="G399" t="inlineStr"/>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="11">
     <dataValidation sqref="B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101 B102 B103 B104 B105 B106 B107 B108 B109 B110 B111 B112 B113 B114 B115 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B126 B127 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B158 B159 B160 B161 B162 B163 B164 B165 B166 B167 B168 B169 B170 B171 B172 B173 B174 B175 B176 B177 B178 B179 B180 B181 B182 B183 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B282 B283 B284 B285 B286 B287 B288 B289 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B333 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B375 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
       <formula1>0</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
     <dataValidation sqref="C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C205 C206 C207 C208 C209 C210 C211 C212 C213 C214 C215 C216 C217 C218 C219 C220 C221 C222 C223 C224 C225 C226 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C260 C261 C262 C263 C264 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C303 C304 C305 C306 C307 C308 C309 C310 C311 C312 C313 C314 C315 C316 C317 C318 C319 C320 C321 C322 C323 C324 C325 C326 C327 C328 C329 C330 C331 C332 C333 C334 C335 C336 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C392 C393 C394 C395 C396 C397 C398 C399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list" operator="between">
-      <formula1>=ENUM!$A$2:$A$5</formula1>
+      <formula1>=ENUM!$A$2:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D167 D168 D169 D170 D171 D172 D173 D174 D175 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D199 D200 D201 D202 D203 D204 D205 D206 D207 D208 D209 D210 D211 D212 D213 D214 D215 D216 D217 D218 D219 D220 D221 D222 D223 D224 D225 D226 D227 D228 D229 D230 D231 D232 D233 D234 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D260 D261 D262 D263 D264 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D303 D304 D305 D306 D307 D308 D309 D310 D311 D312 D313 D314 D315 D316 D317 D318 D319 D320 D321 D322 D323 D324 D325 D326 D327 D328 D329 D330 D331 D332 D333 D334 D335 D336 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D359 D360 D361 D362 D363 D364 D365 D366 D367 D368 D369 D370 D371 D372 D373 D374 D375 D376 D377 D378 D379 D380 D381 D382 D383 D384 D385 D386 D387 D388 D389 D390 D391 D392 D393 D394 D395 D396 D397 D398 D399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
       <formula1>0</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
-    <dataValidation sqref="E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E177 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E208 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E238 E239 E240 E241 E242 E243 E244 E245 E246 E247 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E300 E301 E302 E303 E304 E305 E306 E307 E308 E309 E310 E311 E312 E313 E314 E315 E316 E317 E318 E319 E320 E321 E322 E323 E324 E325 E326 E327 E328 E329 E330 E331 E332 E333 E334 E335 E336 E337 E338 E339 E340 E341 E342 E343 E344 E345 E346 E347 E348 E349 E350 E351 E352 E353 E354 E355 E356 E357 E358 E359 E360 E361 E362 E363 E364 E365 E366 E367 E368 E369 E370 E371 E372 E373 E374 E375 E376 E377 E378 E379 E380 E381 E382 E383 E384 E385 E386 E387 E388 E389 E390 E391 E392 E393 E394 E395 E396 E397 E398 E399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list" operator="between">
-      <formula1>=ENUM!$B$2:$B$4</formula1>
+    <dataValidation sqref="E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E177 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E208 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E238 E239 E240 E241 E242 E243 E244 E245 E246 E247 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E300 E301 E302 E303 E304 E305 E306 E307 E308 E309 E310 E311 E312 E313 E314 E315 E316 E317 E318 E319 E320 E321 E322 E323 E324 E325 E326 E327 E328 E329 E330 E331 E332 E333 E334 E335 E336 E337 E338 E339 E340 E341 E342 E343 E344 E345 E346 E347 E348 E349 E350 E351 E352 E353 E354 E355 E356 E357 E358 E359 E360 E361 E362 E363 E364 E365 E366 E367 E368 E369 E370 E371 E372 E373 E374 E375 E376 E377 E378 E379 E380 E381 E382 E383 E384 E385 E386 E387 E388 E389 E390 E391 E392 E393 E394 E395 E396 E397 E398 E399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="textLength" operator="lessThanOrEqual">
+      <formula1>1024</formula1>
     </dataValidation>
-    <dataValidation sqref="F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F71 F72 F73 F74 F75 F76 F77 F78 F79 F80 F81 F82 F83 F84 F85 F86 F87 F88 F89 F90 F91 F92 F93 F94 F95 F96 F97 F98 F99 F100 F101 F102 F103 F104 F105 F106 F107 F108 F109 F110 F111 F112 F113 F114 F115 F116 F117 F118 F119 F120 F121 F122 F123 F124 F125 F126 F127 F128 F129 F130 F131 F132 F133 F134 F135 F136 F137 F138 F139 F140 F141 F142 F143 F144 F145 F146 F147 F148 F149 F150 F151 F152 F153 F154 F155 F156 F157 F158 F159 F160 F161 F162 F163 F164 F165 F166 F167 F168 F169 F170 F171 F172 F173 F174 F175 F176 F177 F178 F179 F180 F181 F182 F183 F184 F185 F186 F187 F188 F189 F190 F191 F192 F193 F194 F195 F196 F197 F198 F199 F200 F201 F202 F203 F204 F205 F206 F207 F208 F209 F210 F211 F212 F213 F214 F215 F216 F217 F218 F219 F220 F221 F222 F223 F224 F225 F226 F227 F228 F229 F230 F231 F232 F233 F234 F235 F236 F237 F238 F239 F240 F241 F242 F243 F244 F245 F246 F247 F248 F249 F250 F251 F252 F253 F254 F255 F256 F257 F258 F259 F260 F261 F262 F263 F264 F265 F266 F267 F268 F269 F270 F271 F272 F273 F274 F275 F276 F277 F278 F279 F280 F281 F282 F283 F284 F285 F286 F287 F288 F289 F290 F291 F292 F293 F294 F295 F296 F297 F298 F299 F300 F301 F302 F303 F304 F305 F306 F307 F308 F309 F310 F311 F312 F313 F314 F315 F316 F317 F318 F319 F320 F321 F322 F323 F324 F325 F326 F327 F328 F329 F330 F331 F332 F333 F334 F335 F336 F337 F338 F339 F340 F341 F342 F343 F344 F345 F346 F347 F348 F349 F350 F351 F352 F353 F354 F355 F356 F357 F358 F359 F360 F361 F362 F363 F364 F365 F366 F367 F368 F369 F370 F371 F372 F373 F374 F375 F376 F377 F378 F379 F380 F381 F382 F383 F384 F385 F386 F387 F388 F389 F390 F391 F392 F393 F394 F395 F396 F397 F398 F399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
+    <dataValidation sqref="F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F71 F72 F73 F74 F75 F76 F77 F78 F79 F80 F81 F82 F83 F84 F85 F86 F87 F88 F89 F90 F91 F92 F93 F94 F95 F96 F97 F98 F99 F100 F101 F102 F103 F104 F105 F106 F107 F108 F109 F110 F111 F112 F113 F114 F115 F116 F117 F118 F119 F120 F121 F122 F123 F124 F125 F126 F127 F128 F129 F130 F131 F132 F133 F134 F135 F136 F137 F138 F139 F140 F141 F142 F143 F144 F145 F146 F147 F148 F149 F150 F151 F152 F153 F154 F155 F156 F157 F158 F159 F160 F161 F162 F163 F164 F165 F166 F167 F168 F169 F170 F171 F172 F173 F174 F175 F176 F177 F178 F179 F180 F181 F182 F183 F184 F185 F186 F187 F188 F189 F190 F191 F192 F193 F194 F195 F196 F197 F198 F199 F200 F201 F202 F203 F204 F205 F206 F207 F208 F209 F210 F211 F212 F213 F214 F215 F216 F217 F218 F219 F220 F221 F222 F223 F224 F225 F226 F227 F228 F229 F230 F231 F232 F233 F234 F235 F236 F237 F238 F239 F240 F241 F242 F243 F244 F245 F246 F247 F248 F249 F250 F251 F252 F253 F254 F255 F256 F257 F258 F259 F260 F261 F262 F263 F264 F265 F266 F267 F268 F269 F270 F271 F272 F273 F274 F275 F276 F277 F278 F279 F280 F281 F282 F283 F284 F285 F286 F287 F288 F289 F290 F291 F292 F293 F294 F295 F296 F297 F298 F299 F300 F301 F302 F303 F304 F305 F306 F307 F308 F309 F310 F311 F312 F313 F314 F315 F316 F317 F318 F319 F320 F321 F322 F323 F324 F325 F326 F327 F328 F329 F330 F331 F332 F333 F334 F335 F336 F337 F338 F339 F340 F341 F342 F343 F344 F345 F346 F347 F348 F349 F350 F351 F352 F353 F354 F355 F356 F357 F358 F359 F360 F361 F362 F363 F364 F365 F366 F367 F368 F369 F370 F371 F372 F373 F374 F375 F376 F377 F378 F379 F380 F381 F382 F383 F384 F385 F386 F387 F388 F389 F390 F391 F392 F393 F394 F395 F396 F397 F398 F399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list" operator="between">
+      <formula1>=ENUM!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71 G72 G73 G74 G75 G76 G77 G78 G79 G80 G81 G82 G83 G84 G85 G86 G87 G88 G89 G90 G91 G92 G93 G94 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G112 G113 G114 G115 G116 G117 G118 G119 G120 G121 G122 G123 G124 G125 G126 G127 G128 G129 G130 G131 G132 G133 G134 G135 G136 G137 G138 G139 G140 G141 G142 G143 G144 G145 G146 G147 G148 G149 G150 G151 G152 G153 G154 G155 G156 G157 G158 G159 G160 G161 G162 G163 G164 G165 G166 G167 G168 G169 G170 G171 G172 G173 G174 G175 G176 G177 G178 G179 G180 G181 G182 G183 G184 G185 G186 G187 G188 G189 G190 G191 G192 G193 G194 G195 G196 G197 G198 G199 G200 G201 G202 G203 G204 G205 G206 G207 G208 G209 G210 G211 G212 G213 G214 G215 G216 G217 G218 G219 G220 G221 G222 G223 G224 G225 G226 G227 G228 G229 G230 G231 G232 G233 G234 G235 G236 G237 G238 G239 G240 G241 G242 G243 G244 G245 G246 G247 G248 G249 G250 G251 G252 G253 G254 G255 G256 G257 G258 G259 G260 G261 G262 G263 G264 G265 G266 G267 G268 G269 G270 G271 G272 G273 G274 G275 G276 G277 G278 G279 G280 G281 G282 G283 G284 G285 G286 G287 G288 G289 G290 G291 G292 G293 G294 G295 G296 G297 G298 G299 G300 G301 G302 G303 G304 G305 G306 G307 G308 G309 G310 G311 G312 G313 G314 G315 G316 G317 G318 G319 G320 G321 G322 G323 G324 G325 G326 G327 G328 G329 G330 G331 G332 G333 G334 G335 G336 G337 G338 G339 G340 G341 G342 G343 G344 G345 G346 G347 G348 G349 G350 G351 G352 G353 G354 G355 G356 G357 G358 G359 G360 G361 G362 G363 G364 G365 G366 G367 G368 G369 G370 G371 G372 G373 G374 G375 G376 G377 G378 G379 G380 G381 G382 G383 G384 G385 G386 G387 G388 G389 G390 G391 G392 G393 G394 G395 G396 G397 G398 G399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
       <formula1>0</formula1>
       <formula2>4294967295</formula2>
-    </dataValidation>
-    <dataValidation sqref="G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71 G72 G73 G74 G75 G76 G77 G78 G79 G80 G81 G82 G83 G84 G85 G86 G87 G88 G89 G90 G91 G92 G93 G94 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G112 G113 G114 G115 G116 G117 G118 G119 G120 G121 G122 G123 G124 G125 G126 G127 G128 G129 G130 G131 G132 G133 G134 G135 G136 G137 G138 G139 G140 G141 G142 G143 G144 G145 G146 G147 G148 G149 G150 G151 G152 G153 G154 G155 G156 G157 G158 G159 G160 G161 G162 G163 G164 G165 G166 G167 G168 G169 G170 G171 G172 G173 G174 G175 G176 G177 G178 G179 G180 G181 G182 G183 G184 G185 G186 G187 G188 G189 G190 G191 G192 G193 G194 G195 G196 G197 G198 G199 G200 G201 G202 G203 G204 G205 G206 G207 G208 G209 G210 G211 G212 G213 G214 G215 G216 G217 G218 G219 G220 G221 G222 G223 G224 G225 G226 G227 G228 G229 G230 G231 G232 G233 G234 G235 G236 G237 G238 G239 G240 G241 G242 G243 G244 G245 G246 G247 G248 G249 G250 G251 G252 G253 G254 G255 G256 G257 G258 G259 G260 G261 G262 G263 G264 G265 G266 G267 G268 G269 G270 G271 G272 G273 G274 G275 G276 G277 G278 G279 G280 G281 G282 G283 G284 G285 G286 G287 G288 G289 G290 G291 G292 G293 G294 G295 G296 G297 G298 G299 G300 G301 G302 G303 G304 G305 G306 G307 G308 G309 G310 G311 G312 G313 G314 G315 G316 G317 G318 G319 G320 G321 G322 G323 G324 G325 G326 G327 G328 G329 G330 G331 G332 G333 G334 G335 G336 G337 G338 G339 G340 G341 G342 G343 G344 G345 G346 G347 G348 G349 G350 G351 G352 G353 G354 G355 G356 G357 G358 G359 G360 G361 G362 G363 G364 G365 G366 G367 G368 G369 G370 G371 G372 G373 G374 G375 G376 G377 G378 G379 G380 G381 G382 G383 G384 G385 G386 G387 G388 G389 G390 G391 G392 G393 G394 G395 G396 G397 G398 G399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list" operator="between">
-      <formula1>=ENUM!$B$2:$B$4</formula1>
     </dataValidation>
     <dataValidation sqref="H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103 H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118 H119 H120 H121 H122 H123 H124 H125 H126 H127 H128 H129 H130 H131 H132 H133 H134 H135 H136 H137 H138 H139 H140 H141 H142 H143 H144 H145 H146 H147 H148 H149 H150 H151 H152 H153 H154 H155 H156 H157 H158 H159 H160 H161 H162 H163 H164 H165 H166 H167 H168 H169 H170 H171 H172 H173 H174 H175 H176 H177 H178 H179 H180 H181 H182 H183 H184 H185 H186 H187 H188 H189 H190 H191 H192 H193 H194 H195 H196 H197 H198 H199 H200 H201 H202 H203 H204 H205 H206 H207 H208 H209 H210 H211 H212 H213 H214 H215 H216 H217 H218 H219 H220 H221 H222 H223 H224 H225 H226 H227 H228 H229 H230 H231 H232 H233 H234 H235 H236 H237 H238 H239 H240 H241 H242 H243 H244 H245 H246 H247 H248 H249 H250 H251 H252 H253 H254 H255 H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 H294 H295 H296 H297 H298 H299 H300 H301 H302 H303 H304 H305 H306 H307 H308 H309 H310 H311 H312 H313 H314 H315 H316 H317 H318 H319 H320 H321 H322 H323 H324 H325 H326 H327 H328 H329 H330 H331 H332 H333 H334 H335 H336 H337 H338 H339 H340 H341 H342 H343 H344 H345 H346 H347 H348 H349 H350 H351 H352 H353 H354 H355 H356 H357 H358 H359 H360 H361 H362 H363 H364 H365 H366 H367 H368 H369 H370 H371 H372 H373 H374 H375 H376 H377 H378 H379 H380 H381 H382 H383 H384 H385 H386 H387 H388 H389 H390 H391 H392 H393 H394 H395 H396 H397 H398 H399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
       <formula1>0</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
-    <dataValidation sqref="I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
+    <dataValidation sqref="I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list" operator="between">
+      <formula1>=ENUM!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J174 J175 J176 J177 J178 J179 J180 J181 J182 J183 J184 J185 J186 J187 J188 J189 J190 J191 J192 J193 J194 J195 J196 J197 J198 J199 J200 J201 J202 J203 J204 J205 J206 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J219 J220 J221 J222 J223 J224 J225 J226 J227 J228 J229 J230 J231 J232 J233 J234 J235 J236 J237 J238 J239 J240 J241 J242 J243 J244 J245 J246 J247 J248 J249 J250 J251 J252 J253 J254 J255 J256 J257 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J300 J301 J302 J303 J304 J305 J306 J307 J308 J309 J310 J311 J312 J313 J314 J315 J316 J317 J318 J319 J320 J321 J322 J323 J324 J325 J326 J327 J328 J329 J330 J331 J332 J333 J334 J335 J336 J337 J338 J339 J340 J341 J342 J343 J344 J345 J346 J347 J348 J349 J350 J351 J352 J353 J354 J355 J356 J357 J358 J359 J360 J361 J362 J363 J364 J365 J366 J367 J368 J369 J370 J371 J372 J373 J374 J375 J376 J377 J378 J379 J380 J381 J382 J383 J384 J385 J386 J387 J388 J389 J390 J391 J392 J393 J394 J395 J396 J397 J398 J399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
       <formula1>0</formula1>
       <formula2>4294967295</formula2>
     </dataValidation>
-    <dataValidation sqref="J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J174 J175 J176 J177 J178 J179 J180 J181 J182 J183 J184 J185 J186 J187 J188 J189 J190 J191 J192 J193 J194 J195 J196 J197 J198 J199 J200 J201 J202 J203 J204 J205 J206 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J219 J220 J221 J222 J223 J224 J225 J226 J227 J228 J229 J230 J231 J232 J233 J234 J235 J236 J237 J238 J239 J240 J241 J242 J243 J244 J245 J246 J247 J248 J249 J250 J251 J252 J253 J254 J255 J256 J257 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J300 J301 J302 J303 J304 J305 J306 J307 J308 J309 J310 J311 J312 J313 J314 J315 J316 J317 J318 J319 J320 J321 J322 J323 J324 J325 J326 J327 J328 J329 J330 J331 J332 J333 J334 J335 J336 J337 J338 J339 J340 J341 J342 J343 J344 J345 J346 J347 J348 J349 J350 J351 J352 J353 J354 J355 J356 J357 J358 J359 J360 J361 J362 J363 J364 J365 J366 J367 J368 J369 J370 J371 J372 J373 J374 J375 J376 J377 J378 J379 J380 J381 J382 J383 J384 J385 J386 J387 J388 J389 J390 J391 J392 J393 J394 J395 J396 J397 J398 J399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="textLength" operator="lessThanOrEqual">
+    <dataValidation sqref="K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K67 K68 K69 K70 K71 K72 K73 K74 K75 K76 K77 K78 K79 K80 K81 K82 K83 K84 K85 K86 K87 K88 K89 K90 K91 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K171 K172 K173 K174 K175 K176 K177 K178 K179 K180 K181 K182 K183 K184 K185 K186 K187 K188 K189 K190 K191 K192 K193 K194 K195 K196 K197 K198 K199 K200 K201 K202 K203 K204 K205 K206 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K219 K220 K221 K222 K223 K224 K225 K226 K227 K228 K229 K230 K231 K232 K233 K234 K235 K236 K237 K238 K239 K240 K241 K242 K243 K244 K245 K246 K247 K248 K249 K250 K251 K252 K253 K254 K255 K256 K257 K258 K259 K260 K261 K262 K263 K264 K265 K266 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K300 K301 K302 K303 K304 K305 K306 K307 K308 K309 K310 K311 K312 K313 K314 K315 K316 K317 K318 K319 K320 K321 K322 K323 K324 K325 K326 K327 K328 K329 K330 K331 K332 K333 K334 K335 K336 K337 K338 K339 K340 K341 K342 K343 K344 K345 K346 K347 K348 K349 K350 K351 K352 K353 K354 K355 K356 K357 K358 K359 K360 K361 K362 K363 K364 K365 K366 K367 K368 K369 K370 K371 K372 K373 K374 K375 K376 K377 K378 K379 K380 K381 K382 K383 K384 K385 K386 K387 K388 K389 K390 K391 K392 K393 K394 K395 K396 K397 K398 K399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="decimal" operator="between">
+      <formula1>0</formula1>
+      <formula2>4294967295</formula2>
+    </dataValidation>
+    <dataValidation sqref="L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226 L227 L228 L229 L230 L231 L232 L233 L234 L235 L236 L237 L238 L239 L240 L241 L242 L243 L244 L245 L246 L247 L248 L249 L250 L251 L252 L253 L254 L255 L256 L257 L258 L259 L260 L261 L262 L263 L264 L265 L266 L267 L268 L269 L270 L271 L272 L273 L274 L275 L276 L277 L278 L279 L280 L281 L282 L283 L284 L285 L286 L287 L288 L289 L290 L291 L292 L293 L294 L295 L296 L297 L298 L299 L300 L301 L302 L303 L304 L305 L306 L307 L308 L309 L310 L311 L312 L313 L314 L315 L316 L317 L318 L319 L320 L321 L322 L323 L324 L325 L326 L327 L328 L329 L330 L331 L332 L333 L334 L335 L336 L337 L338 L339 L340 L341 L342 L343 L344 L345 L346 L347 L348 L349 L350 L351 L352 L353 L354 L355 L356 L357 L358 L359 L360 L361 L362 L363 L364 L365 L366 L367 L368 L369 L370 L371 L372 L373 L374 L375 L376 L377 L378 L379 L380 L381 L382 L383 L384 L385 L386 L387 L388 L389 L390 L391 L392 L393 L394 L395 L396 L397 L398 L399" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="textLength" operator="lessThanOrEqual">
       <formula1>1024</formula1>
     </dataValidation>
   </dataValidations>
@@ -4798,7 +5928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4833,31 +5963,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>IosBilling</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MoneyType_1</t>
+          <t>GameMoney</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>AndroidBilling</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MoneyType_2</t>
+          <t>CashMoney</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pay</t>
+          <t>GameMoney</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RateScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CashMoney</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PassTicket</t>
         </is>
       </c>
     </row>
